--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -557,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -672,12 +673,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="6">
+        <v>42133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="6">
+        <v>42168</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -694,4 +799,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -142,6 +142,29 @@
     </rPh>
     <rPh sb="4" eb="6">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合しているセル（ラベル名）</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合先の値です。</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -255,6 +278,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -556,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -567,7 +591,9 @@
     <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -665,7 +691,20 @@
       </c>
       <c r="C30" s="4"/>
     </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B34:D34"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -675,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>

--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="正規表現で一致" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -166,6 +166,84 @@
     <rPh sb="4" eb="5">
       <t>アタイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し(1)</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 更新
+日時 </t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改行がある場合
+です。</t>
+    <rPh sb="0" eb="2">
+      <t>カイギョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正規表現の見出し。</t>
+    <rPh sb="0" eb="2">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非正規表現の見出し。</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>セイキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出し(a)</t>
+    <rPh sb="0" eb="2">
+      <t>ミダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー
+（テスト）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見出しが正規表現です。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -206,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +312,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,7 +362,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -582,7 +677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -692,11 +787,11 @@
       <c r="C30" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
@@ -714,9 +809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -829,12 +922,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
     <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
     <sheet name="正規表現で一致" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="数式を指定" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -244,6 +244,27 @@
   </si>
   <si>
     <t>見出しが正規表現です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日</t>
+    <rPh sb="0" eb="3">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>差</t>
+    <rPh sb="0" eb="1">
+      <t>サ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -349,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,10 +391,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -787,11 +809,11 @@
       <c r="C30" s="4"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="4" t="s">
         <v>16</v>
       </c>
@@ -809,7 +831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -924,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -967,7 +991,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>23</v>
       </c>
     </row>
@@ -987,12 +1011,46 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="15">
+        <v>42512</v>
+      </c>
+      <c r="C5" s="15">
+        <v>42644</v>
+      </c>
+      <c r="D5" s="10">
+        <f>C5-B5</f>
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
     <phoneticPr fontId="1"/>
@@ -264,6 +264,37 @@
     <t>差</t>
     <rPh sb="0" eb="1">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結合を考慮</t>
+    <rPh sb="0" eb="2">
+      <t>ケツゴウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウリョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右側</t>
+    <rPh sb="0" eb="2">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下側</t>
+    <rPh sb="0" eb="2">
+      <t>シタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左側</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -305,7 +336,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +373,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -370,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -396,6 +433,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -697,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E38" activeCellId="2" sqref="B38:B40 C41:D41 E38:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -818,9 +861,43 @@
         <v>16</v>
       </c>
     </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -831,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -941,6 +1018,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1013,7 +1091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -1,27 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="LabelledCell(通常)" sheetId="1" r:id="rId1"/>
-    <sheet name="LabelledCell(メソッドにアノテーションを付与)" sheetId="4" r:id="rId2"/>
-    <sheet name="正規表現で一致" sheetId="2" r:id="rId3"/>
-    <sheet name="数式を指定" sheetId="3" r:id="rId4"/>
+    <sheet name="通常" sheetId="1" r:id="rId1"/>
+    <sheet name="メソッドにアノテーションを付与" sheetId="4" r:id="rId2"/>
+    <sheet name="見出しから離れたセル" sheetId="5" r:id="rId3"/>
+    <sheet name="正規表現で一致" sheetId="2" r:id="rId4"/>
+    <sheet name="数式を指定" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
-  <si>
-    <t>LabelledCellProcessor(@XlsLabelledCell)のテスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t>位置（右側）</t>
     <rPh sb="0" eb="2">
@@ -298,11 +295,64 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>アノテーション「@XlsLabelledCell」のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベルから離れたテスト</t>
+    <rPh sb="5" eb="6">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右側1</t>
+    <rPh sb="0" eb="2">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右側2</t>
+    <rPh sb="0" eb="2">
+      <t>ミギガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下側1</t>
+    <rPh sb="0" eb="2">
+      <t>シタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下側2</t>
+    <rPh sb="0" eb="2">
+      <t>シタガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左側1</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左側2</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +459,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -439,6 +488,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -449,12 +499,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,7 +549,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -529,9 +582,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -564,6 +634,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -742,154 +829,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E38" activeCellId="2" sqref="B38:B40 C41:D41 E38:E40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="14.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="5">
+        <v>42133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>42096</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
-        <v>42133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="7" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
+        <v>42168</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
-        <v>42168</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="16" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="17" t="s">
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C41" s="16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="17"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="17"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -908,112 +993,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="4" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="5">
+        <v>42096</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="5">
+        <v>42133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>42096</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B18" s="6">
-        <v>42133</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="D21" s="7" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B22" s="5">
+        <v>42168</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B22" s="6">
-        <v>42168</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B27" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1024,11 +1107,77 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F8" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="F10" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1038,47 +1187,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="E10" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="E9" s="12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="E10" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1087,13 +1236,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1101,29 +1248,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="18" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>42512</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>42644</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <f>C5-B5</f>
         <v>132</v>
       </c>

--- a/src/test/data/anno_LabelledCell.xlsx
+++ b/src/test/data/anno_LabelledCell.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA58FB21-43E6-4CB1-844E-AA8CFADCB026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="34050" yWindow="1845" windowWidth="21615" windowHeight="13860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通常" sheetId="1" r:id="rId1"/>
@@ -12,13 +13,46 @@
     <sheet name="見出しから離れたセル" sheetId="5" r:id="rId3"/>
     <sheet name="正規表現で一致" sheetId="2" r:id="rId4"/>
     <sheet name="数式を指定" sheetId="3" r:id="rId5"/>
+    <sheet name="コメント情報" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{6EE90683-8DFA-4904-BA02-1918DB576542}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>氏名を入力してください。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
   <si>
     <t>位置（右側）</t>
     <rPh sb="0" eb="2">
@@ -348,12 +382,36 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コメント情報のマッピング</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山田太郎</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマダ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +442,14 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -457,7 +523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -482,13 +548,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -826,12 +893,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
@@ -841,12 +910,12 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -854,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -862,17 +931,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
@@ -880,7 +949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -888,7 +957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -899,17 +968,17 @@
         <v>42096</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="5">
         <v>42133</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="5">
         <v>42168</v>
       </c>
@@ -917,7 +986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="24">
       <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
@@ -925,56 +994,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
+    <row r="34" spans="2:5">
+      <c r="B34" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
       <c r="E34" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="16" t="s">
+    <row r="38" spans="2:5">
+      <c r="B38" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="16" t="s">
+      <c r="D38" s="19"/>
+      <c r="E38" s="18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C41" s="16" t="s">
+    <row r="39" spans="2:5">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="C41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="16"/>
+      <c r="D41" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -990,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
@@ -1003,12 +1072,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1016,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1024,17 +1093,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7">
       <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
@@ -1061,17 +1130,17 @@
         <v>42096</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7">
       <c r="B18" s="5">
         <v>42133</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7">
       <c r="D21" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7">
       <c r="B22" s="5">
         <v>42168</v>
       </c>
@@ -1079,7 +1148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="24">
       <c r="B26" s="7" t="s">
         <v>12</v>
       </c>
@@ -1087,12 +1156,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7">
       <c r="B27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:7">
       <c r="B30" s="8" t="s">
         <v>13</v>
       </c>
@@ -1106,26 +1175,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>39</v>
       </c>
@@ -1148,21 +1217,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="F10" s="9" t="s">
         <v>37</v>
       </c>
@@ -1174,24 +1243,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1268,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1207,22 +1276,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="27">
       <c r="E9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="27">
       <c r="E10" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="27">
       <c r="B13" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
@@ -1237,22 +1306,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="B5" s="14">
         <v>42512</v>
       </c>
@@ -1279,4 +1348,42 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A394949-4245-4889-A33C-BEDF784D78DC}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>